--- a/DownloadDataForDK/ModelData/GeneratingCapacity_E.xlsx
+++ b/DownloadDataForDK/ModelData/GeneratingCapacity_E.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biogas</t>
+          <t>id_DK_Central_BP_Biogas</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.412000000000001</v>
+        <v>12.459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biomass</t>
+          <t>id_DK_Central_BP_Biomass</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>671.081</v>
+        <v>1575.299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Coal</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,531 +478,201 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>598.211</v>
+        <v>781.539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.952</v>
+        <v>53.729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Waste</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.137</v>
+        <v>152.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biogas</t>
+          <t>id_DK_Decentral_BP_Biogas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.579</v>
+        <v>59.939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biomass</t>
+          <t>id_DK_Decentral_BP_Biomass</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.281</v>
+        <v>73.49299999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Natgas</t>
+          <t>id_DK_Decentral_BP_Natgas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.864</v>
+        <v>1051.784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Oil</t>
+          <t>id_DK_Decentral_BP_Oil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.195</v>
+        <v>21.475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Waste</t>
+          <t>id_DK_Decentral_BP_Waste</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.192</v>
+        <v>58.869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.033</v>
+        <v>11.174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.721</v>
+        <v>49.789</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>511.05</v>
+        <v>1.781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.257</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.978</v>
+        <v>124.224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK1_nan_CD_Biogas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>123.332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.764</v>
+        <v>928.3820000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.781</v>
+        <v>27.331</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK1_nan_CD_Natgas</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.419</v>
+        <v>3910.802</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Natgas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.25200000000001</v>
+        <v>6.894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK1_nan_CD_Oil</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>95.09999999999999</v>
+        <v>4856.446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Oil</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.081</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_PV</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2900.164</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>6.894</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_WL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4113.983</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_WS</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1606.4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3.047</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>904.218</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>183.328</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2.777</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>82.99299999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>28.505</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>98.21299999999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>23.699</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>13.327</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>21.986</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>101.657</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1.174</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>8.025</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>21.34</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>39.805</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>33.08</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>833.282</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_PV</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1010.638</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_WL</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>742.463</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_WS</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1049.2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_NL</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_NO2</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_SE3</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>id_DK2_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>id_DK2_ImportFrom_SE4</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1750</v>
+        <v>2655.6</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/GeneratingCapacity_E.xlsx
+++ b/DownloadDataForDK/ModelData/GeneratingCapacity_E.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.459</v>
+        <v>72.398</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1575.299</v>
+        <v>1648.792</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.539</v>
+        <v>1833.323</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.729</v>
+        <v>75.20399999999999</v>
       </c>
     </row>
     <row r="7">
@@ -502,176 +502,126 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.13</v>
+        <v>210.999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.939</v>
+        <v>11.174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.49299999999999</v>
+        <v>49.789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1051.784</v>
+        <v>1.781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.475</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.869</v>
+        <v>124.224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Biogas</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.174</v>
+        <v>123.332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.789</v>
+        <v>928.3820000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.781</v>
+        <v>27.331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Coal</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.34</v>
+        <v>3910.802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Natgas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124.224</v>
+        <v>6.894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.332</v>
+        <v>4856.446</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Oil</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>928.3820000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>27.331</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3910.802</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6.894</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4856.446</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
         <v>2655.6</v>
       </c>
     </row>
